--- a/user-data/latest-hh-survey/latest-hh-survey.xlsx
+++ b/user-data/latest-hh-survey/latest-hh-survey.xlsx
@@ -114,87 +114,87 @@
     <t>http://catalog.ihsn.org/index.php/catalog/3387</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>DHS 2011</t>
+  </si>
+  <si>
+    <t>http://catalog.ihsn.org/index.php/catalog/3368/related_materials</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>DHS 2005</t>
+  </si>
+  <si>
+    <t>http://catalog.ihsn.org/index.php/catalog/98</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>MICS 2010</t>
+  </si>
+  <si>
+    <t>http://catalog.ihsn.org/index.php/catalog/4742</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>DHS 2014</t>
+  </si>
+  <si>
+    <t>http://dhsprogram.com/what-we-do/survey/survey-display-465.cfm</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>DHS 2012</t>
+  </si>
+  <si>
+    <t>http://catalog.ihsn.org/index.php/catalog/4741</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>http://catalog.ihsn.org/index.php/catalog/3783</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>DHS 2011</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>http://catalog.ihsn.org/index.php/catalog/6036</t>
   </si>
   <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>http://catalog.ihsn.org/index.php/catalog/3368/related_materials</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>DHS 2005</t>
-  </si>
-  <si>
-    <t>http://catalog.ihsn.org/index.php/catalog/98</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>MICS 2010</t>
-  </si>
-  <si>
-    <t>http://catalog.ihsn.org/index.php/catalog/4742</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>DHS 2014</t>
-  </si>
-  <si>
-    <t>http://dhsprogram.com/what-we-do/survey/survey-display-465.cfm</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>DHS 2012</t>
-  </si>
-  <si>
-    <t>http://catalog.ihsn.org/index.php/catalog/4741</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>http://catalog.ihsn.org/index.php/catalog/3783</t>
-  </si>
-  <si>
     <t>DJ</t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>MICS 2014</t>
@@ -651,7 +651,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1238,87 +1238,87 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1375,7 +1375,7 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -1395,10 +1395,10 @@
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1475,10 +1475,10 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1495,7 +1495,7 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
@@ -1515,10 +1515,10 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1535,10 +1535,10 @@
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1558,7 +1558,7 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1575,10 +1575,10 @@
         <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1595,10 +1595,10 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1615,7 +1615,7 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -1695,10 +1695,10 @@
         <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1735,7 +1735,7 @@
         <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>126</v>
@@ -1795,7 +1795,7 @@
         <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>65</v>
@@ -1815,10 +1815,10 @@
         <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -1835,7 +1835,7 @@
         <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
         <v>65</v>
@@ -1855,10 +1855,10 @@
         <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -1875,7 +1875,7 @@
         <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
         <v>149</v>
@@ -1895,10 +1895,10 @@
         <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -1935,7 +1935,7 @@
         <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
         <v>65</v>
@@ -1975,7 +1975,7 @@
         <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
         <v>166</v>
@@ -2038,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -2055,7 +2055,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
         <v>180</v>
@@ -2075,7 +2075,7 @@
         <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
@@ -2115,7 +2115,7 @@
         <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
         <v>191</v>
@@ -2151,7 +2151,7 @@
         <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>65</v>

--- a/user-data/latest-hh-survey/latest-hh-survey.xlsx
+++ b/user-data/latest-hh-survey/latest-hh-survey.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Household Survey Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/737/study-description</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -51,6 +69,30 @@
     <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-477.cfm</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2011 (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIES 2002; DHS 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-23.cfm</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -60,9 +102,6 @@
     <t xml:space="preserve">DHS 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">International Household Survey Network</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3388</t>
   </si>
   <si>
@@ -75,31 +114,94 @@
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3387</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2011 (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIES 2002; DHS 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-23.cfm</t>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3368/related_materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-465.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/76</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -108,102 +210,390 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">DHS 2013</t>
   </si>
   <si>
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5256</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3368/related_materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/737/study-description</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
-    <t xml:space="preserve">DHS 2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6007</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-314.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-425.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-437.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-451.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-462.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Human Sciences, Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ihs.ox.ac.uk/fileadmin/IHS/First_National_Survey_of_Libya_Cover_Sheet_and_Technical_Summary.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2008 (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2010 (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-483.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5872/related_materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous Multipurpose Household Survey 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Panel Survey 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6106/study-description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-407.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-468.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-470.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-457.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Budget Survey 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nsb.gov.sc/wp-content/uploads/2015/06/HBS-2013-Report.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Household Survey 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5554/study-description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Baseline Household Survey 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-485.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6229/study-description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Household Survey 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4620</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
@@ -211,396 +601,6 @@
   </si>
   <si>
     <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-437.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-425.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-314.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-451.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-462.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS (2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute of Human Sciences, Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ihs.ox.ac.uk/fileadmin/IHS/First_National_Survey_of_Libya_Cover_Sheet_and_Technical_Summary.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Panel Survey 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6106/study-description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2008 (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS (2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5872/related_materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continuous Multipurpose Household Survey 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2010 (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-483.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-407.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-468.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Budget Survey 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.nsb.gov.sc/wp-content/uploads/2015/06/HBS-2013-Report.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Baseline Household Survey 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-457.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-470.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-465.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6229/study-description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-485.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Household Survey 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Household Survey 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5554/study-description</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1119,153 +1119,153 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
@@ -1279,93 +1279,93 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -1379,29 +1379,33 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -1415,13 +1419,13 @@
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
@@ -1435,13 +1439,13 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -1455,10 +1459,10 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1475,10 +1479,10 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1495,13 +1499,13 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>85</v>
@@ -1515,13 +1519,13 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
         <v>88</v>
@@ -1535,13 +1539,13 @@
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>91</v>
@@ -1555,10 +1559,10 @@
         <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1575,13 +1579,13 @@
         <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
         <v>97</v>
@@ -1595,13 +1599,13 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
         <v>100</v>
@@ -1615,10 +1619,10 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1635,7 +1639,7 @@
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>106</v>
@@ -1655,13 +1659,13 @@
         <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
         <v>112</v>
@@ -1675,13 +1679,13 @@
         <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
         <v>116</v>
@@ -1695,13 +1699,13 @@
         <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
         <v>119</v>
@@ -1715,13 +1719,13 @@
         <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>123</v>
@@ -1735,13 +1739,13 @@
         <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>127</v>
@@ -1755,7 +1759,7 @@
         <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>130</v>
@@ -1775,13 +1779,13 @@
         <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
         <v>134</v>
@@ -1795,13 +1799,13 @@
         <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
         <v>137</v>
@@ -1815,13 +1819,13 @@
         <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>140</v>
@@ -1835,13 +1839,13 @@
         <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>143</v>
@@ -1855,13 +1859,13 @@
         <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
         <v>146</v>
@@ -1875,13 +1879,13 @@
         <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
         <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
         <v>150</v>
@@ -1895,33 +1899,33 @@
         <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
         <v>153</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" t="s">
         <v>155</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
         <v>156</v>
       </c>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
         <v>157</v>
@@ -1935,10 +1939,10 @@
         <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1955,13 +1959,13 @@
         <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
         <v>163</v>
@@ -1975,177 +1979,173 @@
         <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
         <v>195</v>
       </c>
+      <c r="E54"/>
+      <c r="F54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -2155,13 +2155,13 @@
         <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
         <v>198</v>
@@ -2175,13 +2175,13 @@
         <v>200</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
         <v>201</v>

--- a/user-data/latest-hh-survey/latest-hh-survey.xlsx
+++ b/user-data/latest-hh-survey/latest-hh-survey.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Household Survey Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/737/study-description</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -51,6 +69,30 @@
     <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-477.cfm</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2011 (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIES 2002; DHS 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-23.cfm</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -60,9 +102,6 @@
     <t xml:space="preserve">DHS 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">International Household Survey Network</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3388</t>
   </si>
   <si>
@@ -75,31 +114,94 @@
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3387</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2011 (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIES 2002; DHS 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-23.cfm</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3368/related_materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-465.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/76</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -108,102 +210,390 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">DHS 2013</t>
   </si>
   <si>
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5256</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3368/related_materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/737/study-description</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
-    <t xml:space="preserve">DHS 2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6007</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-314.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-425.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-437.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-451.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-462.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Human Sciences, Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ihs.ox.ac.uk/fileadmin/IHS/First_National_Survey_of_Libya_Cover_Sheet_and_Technical_Summary.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2008 (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2010 (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-483.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5872/related_materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous Multipurpose Household Survey 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Panel Survey 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6106/study-description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-407.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-468.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-470.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-457.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Budget Survey 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nsb.gov.sc/wp-content/uploads/2015/06/HBS-2013-Report.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Household Survey 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5554/study-description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Baseline Household Survey 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-485.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6229/study-description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Household Survey 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4620</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
@@ -211,396 +601,6 @@
   </si>
   <si>
     <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-437.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-425.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-314.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-451.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-462.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS (2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute of Human Sciences, Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ihs.ox.ac.uk/fileadmin/IHS/First_National_Survey_of_Libya_Cover_Sheet_and_Technical_Summary.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Panel Survey 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6106/study-description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2008 (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS (2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5872/related_materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continuous Multipurpose Household Survey 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2010 (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-483.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-407.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-468.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Budget Survey 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.nsb.gov.sc/wp-content/uploads/2015/06/HBS-2013-Report.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Baseline Household Survey 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-457.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-470.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/2861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-465.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6229/study-description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-485.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Household Survey 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Household Survey 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/5554/study-description</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1119,173 +1119,173 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>47</v>
@@ -1299,73 +1299,73 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -1379,29 +1379,33 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -1415,13 +1419,13 @@
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
@@ -1435,13 +1439,13 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -1455,10 +1459,10 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1475,10 +1479,10 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1495,13 +1499,13 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>85</v>
@@ -1515,13 +1519,13 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
         <v>88</v>
@@ -1535,13 +1539,13 @@
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>91</v>
@@ -1555,10 +1559,10 @@
         <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1575,13 +1579,13 @@
         <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
         <v>97</v>
@@ -1595,13 +1599,13 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
         <v>100</v>
@@ -1615,10 +1619,10 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1635,7 +1639,7 @@
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>106</v>
@@ -1655,13 +1659,13 @@
         <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
         <v>112</v>
@@ -1675,13 +1679,13 @@
         <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
         <v>116</v>
@@ -1695,13 +1699,13 @@
         <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
         <v>119</v>
@@ -1715,13 +1719,13 @@
         <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>123</v>
@@ -1735,13 +1739,13 @@
         <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>127</v>
@@ -1755,7 +1759,7 @@
         <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>130</v>
@@ -1775,13 +1779,13 @@
         <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
         <v>134</v>
@@ -1795,13 +1799,13 @@
         <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
         <v>137</v>
@@ -1815,13 +1819,13 @@
         <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>140</v>
@@ -1835,13 +1839,13 @@
         <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>143</v>
@@ -1855,13 +1859,13 @@
         <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
         <v>146</v>
@@ -1875,13 +1879,13 @@
         <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
         <v>150</v>
@@ -1895,33 +1899,33 @@
         <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
         <v>153</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" t="s">
         <v>155</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
         <v>156</v>
       </c>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
         <v>157</v>
@@ -1935,10 +1939,10 @@
         <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1955,13 +1959,13 @@
         <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
         <v>163</v>
@@ -1975,177 +1979,173 @@
         <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
         <v>195</v>
       </c>
+      <c r="E54"/>
+      <c r="F54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -2155,13 +2155,13 @@
         <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
         <v>198</v>
@@ -2175,13 +2175,13 @@
         <v>200</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
         <v>201</v>

--- a/user-data/latest-hh-survey/latest-hh-survey.xlsx
+++ b/user-data/latest-hh-survey/latest-hh-survey.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -27,10 +27,10 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
-    <t xml:space="preserve">source-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source-link</t>
+    <t xml:space="preserve">source_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_link</t>
   </si>
   <si>
     <t xml:space="preserve">DZ</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
+    <t xml:space="preserve">red</t>
   </si>
   <si>
     <t xml:space="preserve">MICS 2006</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
+    <t xml:space="preserve">orange</t>
   </si>
   <si>
     <t xml:space="preserve">DHS (2015)</t>
@@ -114,87 +114,87 @@
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3387</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3368/related_materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICS 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-465.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3783</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2011</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/6036</t>
   </si>
   <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3368/related_materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICS 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dhsprogram.com/what-we-do/survey/survey-display-465.cfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/4741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalog.ihsn.org/index.php/catalog/3783</t>
-  </si>
-  <si>
     <t xml:space="preserve">DJ</t>
   </si>
   <si>
@@ -624,37 +624,37 @@
     <t xml:space="preserve">Name: latest-hh-survey</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The year and type of the last national household survey. Standard survey types: Demographic &amp; Health Survey (DHS); Multiple Indicator Cluster Survey (MICS); Household Income &amp; Expenditure Survey (HIES); National Survey (NS).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units of measure: NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: IHSN Survey Catalog; USAID DHS Program.</t>
+    <t xml:space="preserve">Description: The year and type of the last national household survey. Standard survey types: Demographic &amp; Health Survey (DHS); Multiple Indicator Cluster Survey (MICS); Household Income &amp; Expenditure Survey (HIES); National Survey (NS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measure:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -1007,15 +1007,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1029,31 +1033,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1242,87 +1241,87 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1379,7 +1378,7 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -1399,10 +1398,10 @@
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1479,10 +1478,10 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1499,7 +1498,7 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
@@ -1519,10 +1518,10 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1539,10 +1538,10 @@
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1562,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1579,10 +1578,10 @@
         <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1599,10 +1598,10 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1619,7 +1618,7 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -1699,10 +1698,10 @@
         <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1739,7 +1738,7 @@
         <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>126</v>
@@ -1799,7 +1798,7 @@
         <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>65</v>
@@ -1819,10 +1818,10 @@
         <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -1839,7 +1838,7 @@
         <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
         <v>65</v>
@@ -1859,10 +1858,10 @@
         <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -1879,7 +1878,7 @@
         <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
         <v>149</v>
@@ -1899,10 +1898,10 @@
         <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -1939,7 +1938,7 @@
         <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
         <v>65</v>
@@ -1979,7 +1978,7 @@
         <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
         <v>166</v>
@@ -2042,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -2059,7 +2058,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
         <v>180</v>
@@ -2079,7 +2078,7 @@
         <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
@@ -2119,7 +2118,7 @@
         <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
         <v>191</v>
@@ -2155,7 +2154,7 @@
         <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>65</v>

--- a/user-data/latest-hh-survey/latest-hh-survey.xlsx
+++ b/user-data/latest-hh-survey/latest-hh-survey.xlsx
@@ -630,7 +630,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 63</t>
+    <t xml:space="preserve">Source: 64</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/latest-hh-survey/latest-hh-survey.xlsx
+++ b/user-data/latest-hh-survey/latest-hh-survey.xlsx
@@ -630,7 +630,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 64</t>
+    <t xml:space="preserve">Source: 66</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/latest-hh-survey/latest-hh-survey.xlsx
+++ b/user-data/latest-hh-survey/latest-hh-survey.xlsx
@@ -630,7 +630,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 63</t>
+    <t xml:space="preserve">Source: 66</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/latest-hh-survey/latest-hh-survey.xlsx
+++ b/user-data/latest-hh-survey/latest-hh-survey.xlsx
@@ -630,7 +630,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 66</t>
+    <t xml:space="preserve">Source: 65</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
